--- a/BackTest/2020-01-23 BackTest CON.xlsx
+++ b/BackTest/2020-01-23 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1354273.1849</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1299205.5349</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1212098.5249</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1317227.6749</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1238338.7609</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1346471.6009</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1445593.3709</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1463615.5109</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1446594.6009</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1446594.6009</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1446594.6009</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1292405.1809</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1385519.5709</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1834767.2809</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1834767.2809</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1938895.2009</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1866806.6409</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2042075.2559</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2091135.5259</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2122125.5969</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2064054.256899999</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5277070.246899999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5387205.546899999</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1499226.7494</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1474081.6424</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1415009.0724</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1469075.4924</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1515132.0724</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1408000.4624</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1483092.7124</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1654642.6524</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1710711.5324</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1786805.0124</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1875477.1303</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1851447.6103</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1831743.3607</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1934870.0507</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1825735.980699999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1796700.3107</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1823733.5207</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1741632.660699999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1776315.2677</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1761296.8177</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1625564.2331</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1646590.0631</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1548469.5231</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1584513.8031</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1565490.4331</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1603537.1731</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1643586.3731</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1729692.1531</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1612548.2431</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1547468.2931</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1607542.0931</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1598011.5448</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1873056.111799999</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1853767.223899999</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1892815.193899999</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1996943.113899999</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1924854.553899999</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1935868.083899999</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1871789.363899999</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1904829.953899999</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1953890.223899999</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1883804.123899999</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1983927.123899999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1984928.353899999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2073422.601899999</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2053398.001899999</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2163533.301899999</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2165888.346899999</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2115826.846899999</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2167890.806899999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2226963.376899999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2281029.796899999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2434217.986899999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2359125.736899999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2381152.796899999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2422203.226899999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2331091.296899999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2331091.296899999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-2390171.092599999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-2390171.092599999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2438430.132599999</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-2468730.168999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-2310363.308499999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-2323379.298499999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-2222255.068499999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2222055.068499999</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2205835.388499999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2261904.268499999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2332870.660899999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2399953.070899999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2323859.590899999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2381930.930899999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2376930.930899999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-2480001.551899998</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-2385885.931899998</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-2304786.301899998</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2346837.961899999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-2557742.632699999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-2631833.652699999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2570758.622699999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2598793.062699999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2645850.872699999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2539720.492699999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2539720.492699999</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2648854.562699999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2677890.232699999</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2677890.232699999</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2595789.372699999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2660869.322699999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2744972.642699999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2728952.962699999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2827001.413699999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2805975.583699998</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2904096.123699998</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2868051.843699999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2891331.511199999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2993305.278499999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2953256.078499998</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2867150.298499999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2775037.138499998</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2800067.888499998</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2800067.888499998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3074349.441899999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-3007267.031899998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2941185.851899998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3033075.737399998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2931951.507399998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2876883.857399998</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2964684.482399998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2859555.332399998</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2937651.272399998</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3045784.112399998</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2946662.342399998</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2964684.482399998</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2981705.392399998</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2924635.282399999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2947863.572399999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-3349830.224399998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-3489775.076499999</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-3541839.036499999</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3482766.466499999</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3536832.886499999</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-3383444.696499999</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3458536.946499999</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-3550048.876499999</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-3550048.876499999</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3501989.836499999</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3501989.836499999</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3418887.746499999</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3431903.736499999</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3401866.836499999</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3472954.166499999</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3393856.996499999</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3472834.264499999</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-3431783.834499999</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-3355490.354499999</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-3355290.354499999</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-3355290.354499999</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-3355290.354499999</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-3494744.817899999</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-3436673.477899999</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-3538798.937899999</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3632914.557899999</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3507556.498699999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3569632.758699999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3442476.548699999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-3421976.902599999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-3511086.372599999</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3357898.182599999</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3461024.872599999</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3351890.8026</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-3380926.4726</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-3380926.4726</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-2875521.45070113</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-2837474.71070113</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-2877523.91070113</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-2877523.91070113</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-2785410.75070113</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-2810441.50070113</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-2875521.45070113</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-2942603.86070113</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-2876522.68070113</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-2786411.98070113</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-2942603.86070113</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-2941698.74870113</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-3074789.10550113</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-3076804.10610113</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-3159213.42210113</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-3313462.55220113</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-3345166.36800113</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-3770526.10390113</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-3785446.10390113</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-3803668.24390113</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-3828473.41910113</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-4865593.08180113</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-4865593.08180113</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-4808522.97180113</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-4785494.68180113</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-4939037.03120113</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-4780966.260001129</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-4772243.44930113</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-4748213.92930113</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-4540223.71920113</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-4559851.84300113</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-4458727.61300113</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-4539699.08600113</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-4322432.17600113</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-7146407.989254349</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-7541964.286154348</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-8860359.762572432</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>2.996</v>
@@ -27647,7 +27647,7 @@
         <v>-8849346.232572433</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>2.996</v>
@@ -27688,7 +27688,7 @@
         <v>-8913424.952572433</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>2.997</v>
@@ -27729,7 +27729,7 @@
         <v>-8880384.362572433</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>2.996</v>
@@ -27766,7 +27766,7 @@
         <v>-9129444.942872433</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>2.997</v>
@@ -27807,7 +27807,7 @@
         <v>-9059358.842872433</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>2.996</v>
@@ -27848,7 +27848,7 @@
         <v>-8918342.979172433</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>3.017</v>
@@ -27889,7 +27889,7 @@
         <v>-8932360.199172433</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I832" t="n">
         <v>3.033</v>
@@ -27930,9 +27930,11 @@
         <v>-8976414.319172433</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>3.031</v>
+      </c>
       <c r="J833" t="n">
         <v>2.996</v>
       </c>
@@ -27969,9 +27971,11 @@
         <v>-8938671.953172432</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3.023</v>
+      </c>
       <c r="J834" t="n">
         <v>2.996</v>
       </c>
@@ -28008,9 +28012,11 @@
         <v>-8804507.133172432</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>3.029</v>
+      </c>
       <c r="J835" t="n">
         <v>2.996</v>
       </c>
@@ -28047,9 +28053,11 @@
         <v>-8674347.233172432</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>3.033</v>
+      </c>
       <c r="J836" t="n">
         <v>2.996</v>
       </c>
@@ -28086,9 +28094,11 @@
         <v>-8709390.283172432</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3.035</v>
+      </c>
       <c r="J837" t="n">
         <v>2.996</v>
       </c>
@@ -28125,9 +28135,11 @@
         <v>-8724408.733172432</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.032</v>
+      </c>
       <c r="J838" t="n">
         <v>2.996</v>
       </c>
@@ -28164,9 +28176,11 @@
         <v>-8921467.864472432</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3.03</v>
+      </c>
       <c r="J839" t="n">
         <v>2.996</v>
       </c>
@@ -28281,9 +28295,11 @@
         <v>-9104314.703672431</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3.024</v>
+      </c>
       <c r="J842" t="n">
         <v>2.996</v>
       </c>
@@ -28320,9 +28336,11 @@
         <v>-9150371.283672431</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3.032</v>
+      </c>
       <c r="J843" t="n">
         <v>2.996</v>
       </c>
@@ -28437,9 +28455,11 @@
         <v>-9096304.863672432</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3.024</v>
+      </c>
       <c r="J846" t="n">
         <v>2.996</v>
       </c>
@@ -28476,9 +28496,11 @@
         <v>-9048587.453772431</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3.034</v>
+      </c>
       <c r="J847" t="n">
         <v>2.996</v>
       </c>
@@ -28515,9 +28537,11 @@
         <v>-9139699.383772431</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.047</v>
+      </c>
       <c r="J848" t="n">
         <v>2.996</v>
       </c>
@@ -28593,9 +28617,11 @@
         <v>-9278870.353772432</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.029</v>
+      </c>
       <c r="J850" t="n">
         <v>2.996</v>
       </c>
@@ -28710,9 +28736,11 @@
         <v>-9169936.529772433</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3.018</v>
+      </c>
       <c r="J853" t="n">
         <v>2.996</v>
       </c>
@@ -28788,9 +28816,11 @@
         <v>-9182952.519772433</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>3.02</v>
+      </c>
       <c r="J855" t="n">
         <v>2.996</v>
       </c>
@@ -28827,9 +28857,11 @@
         <v>-9111865.189772433</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>3.02</v>
+      </c>
       <c r="J856" t="n">
         <v>2.996</v>
       </c>
@@ -28866,9 +28898,11 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3.021</v>
+      </c>
       <c r="J857" t="n">
         <v>2.996</v>
       </c>
@@ -28905,9 +28939,11 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>3.016</v>
+      </c>
       <c r="J858" t="n">
         <v>2.996</v>
       </c>
@@ -28944,9 +28980,11 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>3.016</v>
+      </c>
       <c r="J859" t="n">
         <v>2.996</v>
       </c>
@@ -28983,9 +29021,11 @@
         <v>-9223001.719772432</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>3.016</v>
+      </c>
       <c r="J860" t="n">
         <v>2.996</v>
       </c>
@@ -29061,11 +29101,9 @@
         <v>-9015888.493872432</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
-      </c>
-      <c r="I862" t="n">
-        <v>3.022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
         <v>2.996</v>
       </c>
@@ -29258,9 +29296,11 @@
         <v>-8952999.43687243</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3.047</v>
+      </c>
       <c r="J867" t="n">
         <v>2.996</v>
       </c>
@@ -29336,7 +29376,7 @@
         <v>-8971021.576872431</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I869" t="n">
         <v>3.036</v>
@@ -29377,7 +29417,7 @@
         <v>-8868896.11687243</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>3.037</v>
@@ -29418,7 +29458,7 @@
         <v>-8846298.91387243</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>3.038</v>
@@ -29966,7 +30006,7 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
@@ -30005,7 +30045,7 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
@@ -30044,7 +30084,7 @@
         <v>-8399001.929672429</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
@@ -30083,7 +30123,7 @@
         <v>-8611726.10707243</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
@@ -30122,7 +30162,7 @@
         <v>-8729871.24707243</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
@@ -30161,7 +30201,7 @@
         <v>-8827991.787072429</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
@@ -30200,7 +30240,7 @@
         <v>-8791947.50707243</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="n">
@@ -30239,7 +30279,7 @@
         <v>-8810970.877072429</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
@@ -30278,7 +30318,7 @@
         <v>-8772924.137072429</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
@@ -30317,7 +30357,7 @@
         <v>-8732874.93707243</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
@@ -30356,7 +30396,7 @@
         <v>-8905701.519772429</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
@@ -30434,7 +30474,7 @@
         <v>-8972946.929772429</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
@@ -30473,7 +30513,7 @@
         <v>-9038026.879772428</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
@@ -30512,7 +30552,7 @@
         <v>-8820932.782372428</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
@@ -30551,7 +30591,7 @@
         <v>-8753377.169072429</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
@@ -30590,7 +30630,7 @@
         <v>-8819458.349072428</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
@@ -31019,7 +31059,7 @@
         <v>-8519089.349072432</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
@@ -33922,6 +33962,6 @@
       <c r="M986" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest CON.xlsx
+++ b/BackTest/2020-01-23 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>-1463615.5109</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1446594.6009</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1292405.1809</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1385519.5709</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1834767.2809</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1834767.2809</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1938895.2009</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2042075.2559</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2122125.5969</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5277070.246899999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5387205.546899999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-5215583.927499998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-5131480.607499998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-5147500.287499998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-5050380.977499998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-5071406.807499998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5030356.377499999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5025646.5915</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4920517.4415</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4842421.501499999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4951283.2365</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4947694.951099999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4848573.1811</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4870183.6065</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4778583.6965</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4643346.3011</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4666374.5911</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4581270.0411</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4847597.2211</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4764495.1311</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4700416.4111</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4733457.0011</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4684396.7311</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4755163.6671</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4655040.6671</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4641023.4471</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4685077.567100001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4648032.057100001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4693087.4071</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4603977.937100001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4588959.4871</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4573260.2011</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1401019.4912</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1654642.6524</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1710711.5324</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1895501.7303</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1832424.2403</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1706942.7903</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1604817.3303</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1699285.3833</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1618185.7533</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1825735.980699999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1796700.3107</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1823733.5207</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1741632.660699999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1776315.2677</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1761296.8177</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1625564.2331</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1646590.0631</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1548469.5231</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1584513.8031</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1565490.4331</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1603537.1731</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1643586.3731</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1729692.1531</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1612548.2431</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1547468.2931</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1607542.0931</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1598011.5448</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1853767.223899999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1892815.193899999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1996943.113899999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1924854.553899999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1935868.083899999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1871789.363899999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1904829.953899999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1953890.223899999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1883804.123899999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1983927.123899999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1984928.353899999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2115826.846899999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2167890.806899999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2226963.376899999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2281029.796899999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2434217.986899999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2359125.736899999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2381152.796899999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2422203.226899999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2331091.296899999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2331091.296899999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-2390171.092599999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-2390171.092599999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2438430.132599999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-2468730.168999999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-2310363.308499999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-2323379.298499999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-2222255.068499999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2222055.068499999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2301152.238499999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2205835.388499999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2261904.268499999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2237338.089499999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2332870.660899999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2399953.070899999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2323859.590899999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2381930.930899999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2376930.930899999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-2480001.551899998</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-2385885.931899998</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-2304786.301899998</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2346837.961899999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-2557742.632699999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-2631833.652699999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2570758.622699999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2598793.062699999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2645850.872699999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2539720.492699999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2539720.492699999</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2648854.562699999</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2677890.232699999</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2677890.232699999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2595789.372699999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2660869.322699999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2744972.642699999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2728952.962699999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2827001.413699999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2805975.583699998</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2904096.123699998</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2868051.843699999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2891331.511199999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2993305.278499999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2953256.078499998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2867150.298499999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2775037.138499998</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2800067.888499998</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2800067.888499998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3074349.441899999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-3007267.031899998</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2941185.851899998</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3033075.737399998</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2931951.507399998</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2876883.857399998</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2964684.482399998</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2859555.332399998</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2937651.272399998</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-3045784.112399998</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2946662.342399998</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2964684.482399998</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2981705.392399998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2924635.282399999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2947863.572399999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-3349830.224399998</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-3550048.876499999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-3550048.876499999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3501989.836499999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3501989.836499999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3418887.746499999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3431903.736499999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3401866.836499999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3472954.166499999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3393856.996499999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3473955.396499999</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3472834.264499999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-3498866.244499999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-3431783.834499999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-3355490.354499999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-3355290.354499999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-3355290.354499999</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-3355290.354499999</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-3494744.817899999</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-3436673.477899999</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-3538798.937899999</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3632914.557899999</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3507556.498699999</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3569632.758699999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3442476.548699999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-3421976.902599999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-3511086.372599999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-3357898.182599999</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-3461024.872599999</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-3351890.8026</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-3380926.4726</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-3380926.4726</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-3074789.10550113</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-3785446.10390113</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-3803668.24390113</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-3828473.41910113</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-4865593.08180113</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-4865593.08180113</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-4808522.97180113</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-4785494.68180113</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-7016624.797254349</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-7146407.989254349</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-7110364.270154349</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-7218497.110154347</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-7237379.925254348</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-7294450.035254348</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-7111769.898654348</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-7356960.507654348</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-7263846.117654349</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-7340940.827654349</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-7600075.67515435</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-7688183.91515435</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-7640124.87515435</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-7713214.66515435</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-7796316.75515435</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-7809332.74515435</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-7839369.64515435</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-7670586.29715435</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-7670386.29715435</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-10342824.26825435</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-10529740.82105435</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-10500705.15105435</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-10473671.94105435</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-10555772.80105435</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-10589814.62105435</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-10558776.49105434</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-10472550.42255435</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-10556653.74255435</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-10540634.06255435</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-10443514.75255435</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-10464540.58255435</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-10562661.12255435</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-10526616.84255435</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-10507593.47255435</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-10545640.21255435</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-10419485.23255435</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-10424774.56855435</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-11593728.94425434</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,10 +25201,14 @@
         <v>-11563692.04425434</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="J752" t="n">
+        <v>3.116</v>
+      </c>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
@@ -25234,11 +25238,19 @@
         <v>-10523522.02555434</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="J753" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25279,19 @@
         <v>-10673706.52555434</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="J754" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25320,19 @@
         <v>-10753804.92555434</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="J755" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25361,19 @@
         <v>-10657686.84555434</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="J756" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25402,19 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J757" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25443,19 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="J758" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25484,19 @@
         <v>-10626456.47955434</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="J759" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25525,19 @@
         <v>-10576394.97955434</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J760" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,11 +25566,19 @@
         <v>-10377056.99605434</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="J761" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25607,19 @@
         <v>-10389071.75605434</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J762" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25648,19 @@
         <v>-10457155.39605434</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J763" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25689,19 @@
         <v>-10394077.90605434</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J764" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25633,8 +25733,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25666,8 +25772,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25808,19 @@
         <v>-10489194.75605435</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3.126</v>
+      </c>
+      <c r="J767" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +25849,19 @@
         <v>-10431123.41605435</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="J768" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25765,8 +25893,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +25929,19 @@
         <v>-5186289.965354347</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="J770" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25831,8 +25973,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25864,8 +26012,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25897,8 +26051,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25930,8 +26090,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25963,8 +26129,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25996,8 +26168,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26029,8 +26207,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,13 +26243,19 @@
         <v>-5178752.706354345</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L778" t="n">
-        <v>1</v>
+        <v>0.9962836970474968</v>
       </c>
       <c r="M778" t="inlineStr"/>
     </row>
@@ -26191,7 +26381,7 @@
         <v>-5450086.036354346</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26257,7 +26447,7 @@
         <v>-5448083.576354346</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26521,7 +26711,7 @@
         <v>-5603674.121354345</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26686,7 +26876,7 @@
         <v>-5791501.757731814</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27610,14 +27800,10 @@
         <v>-8860359.762572432</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J825" t="n">
-        <v>2.996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
@@ -27647,97 +27833,89 @@
         <v>-8849346.232572433</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
         <v>2.996</v>
       </c>
-      <c r="J826" t="n">
+      <c r="C827" t="n">
         <v>2.996</v>
       </c>
-      <c r="K826" t="inlineStr">
+      <c r="D827" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="E827" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="F827" t="n">
+        <v>64078.72</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-8913424.952572433</v>
+      </c>
+      <c r="H827" t="n">
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="J827" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="C828" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="D828" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="E828" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="F828" t="n">
+        <v>33040.59</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-8880384.362572433</v>
+      </c>
+      <c r="H828" t="n">
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J828" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="K828" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="C827" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="D827" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="E827" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="F827" t="n">
-        <v>64078.72</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-8913424.952572433</v>
-      </c>
-      <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="J827" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="C828" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="D828" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="E828" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="F828" t="n">
-        <v>33040.59</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-8880384.362572433</v>
-      </c>
-      <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J828" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27772,7 +27950,7 @@
         <v>2.997</v>
       </c>
       <c r="J829" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -27813,7 +27991,7 @@
         <v>2.996</v>
       </c>
       <c r="J830" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -27854,7 +28032,7 @@
         <v>3.017</v>
       </c>
       <c r="J831" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -27889,13 +28067,11 @@
         <v>-8932360.199172433</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>3.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -27930,13 +28106,11 @@
         <v>-8976414.319172433</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>3.031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -27971,13 +28145,11 @@
         <v>-8938671.953172432</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>3.023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28012,13 +28184,11 @@
         <v>-8804507.133172432</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28053,13 +28223,11 @@
         <v>-8674347.233172432</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>3.033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28094,13 +28262,11 @@
         <v>-8709390.283172432</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>3.035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28135,13 +28301,11 @@
         <v>-8724408.733172432</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28176,13 +28340,11 @@
         <v>-8921467.864472432</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28221,7 +28383,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -28260,7 +28422,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K841" t="inlineStr">
         <is>
@@ -28295,13 +28457,11 @@
         <v>-9104314.703672431</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>3.024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K842" t="inlineStr">
         <is>
@@ -28336,13 +28496,11 @@
         <v>-9150371.283672431</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>3.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K843" t="inlineStr">
         <is>
@@ -28381,7 +28539,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K844" t="inlineStr">
         <is>
@@ -28420,7 +28578,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -28455,13 +28613,11 @@
         <v>-9096304.863672432</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3.024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -28496,13 +28652,11 @@
         <v>-9048587.453772431</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>3.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -28537,13 +28691,11 @@
         <v>-9139699.383772431</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>3.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -28582,7 +28734,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -28617,13 +28769,11 @@
         <v>-9278870.353772432</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>3.029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -28662,7 +28812,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -28701,7 +28851,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -28736,13 +28886,11 @@
         <v>-9169936.529772433</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>3.018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -28777,11 +28925,13 @@
         <v>-9182952.519772433</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>3.024</v>
+      </c>
       <c r="J854" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -28816,13 +28966,11 @@
         <v>-9182952.519772433</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>3.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -28863,7 +29011,7 @@
         <v>3.02</v>
       </c>
       <c r="J856" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -28898,13 +29046,11 @@
         <v>-9190962.359772433</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>3.021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -28945,7 +29091,7 @@
         <v>3.016</v>
       </c>
       <c r="J858" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -28986,7 +29132,7 @@
         <v>3.016</v>
       </c>
       <c r="J859" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29027,7 +29173,7 @@
         <v>3.016</v>
       </c>
       <c r="J860" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29062,11 +29208,13 @@
         <v>-9127884.869772432</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.015</v>
+      </c>
       <c r="J861" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29101,11 +29249,13 @@
         <v>-9015888.493872432</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.022</v>
+      </c>
       <c r="J862" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29140,11 +29290,13 @@
         <v>-8977677.753872432</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3.024</v>
+      </c>
       <c r="J863" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29183,7 +29335,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29222,7 +29374,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29257,11 +29409,13 @@
         <v>-8928969.916872431</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3.039</v>
+      </c>
       <c r="J866" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29296,13 +29450,11 @@
         <v>-8952999.43687243</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>3.047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29341,7 +29493,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29376,13 +29528,11 @@
         <v>-8971021.576872431</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>3.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29417,13 +29567,11 @@
         <v>-8868896.11687243</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>3.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29458,13 +29606,11 @@
         <v>-8846298.91387243</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>3.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29503,7 +29649,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29538,19 +29684,19 @@
         <v>-8511027.552672431</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>2.996</v>
+        <v>2.997</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L873" t="n">
-        <v>1</v>
+        <v>1.02503003003003</v>
       </c>
       <c r="M873" t="inlineStr"/>
     </row>
@@ -29577,17 +29723,11 @@
         <v>-8553079.212672431</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29616,17 +29756,11 @@
         <v>-8490634.499672431</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29655,17 +29789,11 @@
         <v>-8543699.689672431</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29694,17 +29822,11 @@
         <v>-8469608.669672431</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29733,17 +29855,11 @@
         <v>-8530683.699672431</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29775,14 +29891,8 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29814,14 +29924,8 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29853,14 +29957,8 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29892,14 +29990,8 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29931,14 +30023,8 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29967,17 +30053,11 @@
         <v>-8450064.65967243</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30006,17 +30086,11 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30045,17 +30119,11 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30084,17 +30152,11 @@
         <v>-8399001.929672429</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30123,17 +30185,11 @@
         <v>-8611726.10707243</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30162,17 +30218,11 @@
         <v>-8729871.24707243</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30204,14 +30254,8 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30243,14 +30287,8 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30279,17 +30317,11 @@
         <v>-8810970.877072429</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30318,17 +30350,11 @@
         <v>-8772924.137072429</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30357,17 +30383,11 @@
         <v>-8732874.93707243</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30396,17 +30416,11 @@
         <v>-8905701.519772429</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30435,17 +30449,11 @@
         <v>-8997977.679772429</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30474,17 +30482,11 @@
         <v>-8972946.929772429</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30513,17 +30515,11 @@
         <v>-9038026.879772428</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30552,17 +30548,11 @@
         <v>-8820932.782372428</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30591,17 +30581,11 @@
         <v>-8753377.169072429</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30630,17 +30614,11 @@
         <v>-8819458.349072428</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30669,17 +30647,11 @@
         <v>-8628223.419072429</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30708,17 +30680,11 @@
         <v>-8683291.069072429</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30747,17 +30713,11 @@
         <v>-8596184.059072429</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30786,17 +30746,11 @@
         <v>-8491054.909072429</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30825,17 +30779,11 @@
         <v>-8412958.969072429</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30864,17 +30812,11 @@
         <v>-8521091.809072429</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30903,17 +30845,11 @@
         <v>-8421970.03907243</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30942,17 +30878,11 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30981,17 +30911,11 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31020,17 +30944,11 @@
         <v>-8433984.799072431</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31059,17 +30977,11 @@
         <v>-8519089.349072432</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31098,17 +31010,11 @@
         <v>-8588174.219072431</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31137,17 +31043,11 @@
         <v>-8495059.829072431</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31176,17 +31076,11 @@
         <v>-8417965.11907243</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31215,17 +31109,11 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31254,17 +31142,11 @@
         <v>-8561141.00907243</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31293,17 +31175,11 @@
         <v>-8633229.569072431</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31332,17 +31208,11 @@
         <v>-8632492.664072432</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31371,17 +31241,11 @@
         <v>-8707584.914072432</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31410,17 +31274,11 @@
         <v>-8674544.324072432</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31452,14 +31310,8 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31491,14 +31343,8 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31530,14 +31376,8 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31569,14 +31409,8 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31608,14 +31442,8 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31647,14 +31475,8 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31686,14 +31508,8 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31725,14 +31541,8 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31764,14 +31574,8 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31803,14 +31607,8 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31842,14 +31640,8 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31881,14 +31673,8 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31920,14 +31706,8 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31959,14 +31739,8 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31998,14 +31772,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32037,14 +31805,8 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32076,14 +31838,8 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32115,14 +31871,8 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32154,14 +31904,8 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32193,14 +31937,8 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32232,14 +31970,8 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32271,14 +32003,8 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32310,14 +32036,8 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32349,14 +32069,8 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32388,14 +32102,8 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32427,14 +32135,8 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32466,14 +32168,8 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32505,14 +32201,8 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32544,14 +32234,8 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32583,14 +32267,8 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32622,14 +32300,8 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32661,14 +32333,8 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32700,14 +32366,8 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32739,14 +32399,8 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32778,14 +32432,8 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32817,14 +32465,8 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32856,14 +32498,8 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32895,14 +32531,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32934,14 +32564,8 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32973,14 +32597,8 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33012,14 +32630,8 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33051,14 +32663,8 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33090,14 +32696,8 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33129,14 +32729,8 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33168,14 +32762,8 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33207,14 +32795,8 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33246,14 +32828,8 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33285,14 +32861,8 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33324,14 +32894,8 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33363,14 +32927,8 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33402,14 +32960,8 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33441,14 +32993,8 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33480,14 +33026,8 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33519,14 +33059,8 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33558,14 +33092,8 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33597,14 +33125,8 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33636,14 +33158,8 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33675,14 +33191,8 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33714,14 +33224,8 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33753,14 +33257,8 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33792,14 +33290,8 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33831,14 +33323,8 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33870,14 +33356,8 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33909,14 +33389,8 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33948,20 +33422,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
       <c r="M986" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest CON.xlsx
+++ b/BackTest/2020-01-23 BackTest CON.xlsx
@@ -3025,7 +3025,7 @@
         <v>-5215583.927499998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-5131480.607499998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-5147500.287499998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-5050380.977499998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-5071406.807499998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4973286.267499998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5030356.377499999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5025646.5915</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4920517.4415</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-4842421.501499999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4951283.2365</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4947694.951099999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4848573.1811</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4870183.6065</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4778583.6965</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4643346.3011</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4666374.5911</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4581270.0411</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4743469.3011</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4847597.2211</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4764495.1311</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4700416.4111</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4733457.0011</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4684396.7311</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4755163.6671</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4655040.6671</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4641023.4471</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4685077.567100001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4648032.057100001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4693087.4071</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4603977.937100001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4624002.5371</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4588959.4871</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4573260.2011</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1401019.4912</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1654642.6524</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1710711.5324</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1786805.0124</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1895501.7303</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1832424.2403</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1604817.3303</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1699285.3833</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1618185.7533</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1719605.6007</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1645514.5807</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1706589.6107</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1831743.3607</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1745277.1377</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1625564.2331</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1646590.0631</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1548469.5231</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1584513.8031</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1565490.4331</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1603537.1731</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1643586.3731</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1729692.1531</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1612548.2431</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1547468.2931</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1607542.0931</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1675457.5261</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1598011.5448</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1458885.7988</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1548996.498799999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1650120.728799999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1737227.738799999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1737227.738799999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1815323.678799999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1873056.111799999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1850027.821799999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1853767.223899999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1892815.193899999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1996943.113899999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1935868.083899999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1871789.363899999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1904829.953899999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1953890.223899999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1983927.123899999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1939873.003899999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1984928.353899999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1984313.131899999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2073422.601899999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2053398.001899999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2163533.301899999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2165888.346899999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2167890.806899999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2226963.376899999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2281029.796899999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2381152.796899999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2422203.226899999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-7016624.797254349</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-7047862.927254349</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-7146407.989254349</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-7110363.709254349</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-7110364.270154349</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-7197471.280154348</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-7119375.340154348</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-7218497.110154347</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-7237379.925254348</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-7294450.035254348</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-7111769.898654348</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-7356960.507654348</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-7263846.117654349</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-7340940.827654349</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-7600075.67515435</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-7688183.91515435</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-7640124.87515435</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-7713214.66515435</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-7796316.75515435</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-7809332.74515435</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-7839369.64515435</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-7670586.29715435</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-7670386.29715435</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-10342824.26825435</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-10529740.82105435</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-10500705.15105435</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-10473671.94105435</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-10555772.80105435</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-10589814.62105435</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-10558776.49105434</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-10472550.42255435</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-10556653.74255435</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-10540634.06255435</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-10443514.75255435</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-10464540.58255435</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-10562661.12255435</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-10526616.84255435</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-10507593.47255435</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-10545640.21255435</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-10419485.23255435</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-10424774.56855435</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-11593728.94425434</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,14 +25201,10 @@
         <v>-11563692.04425434</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="J752" t="n">
-        <v>3.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
@@ -25238,19 +25234,11 @@
         <v>-10523522.02555434</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="J753" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25279,19 +25267,11 @@
         <v>-10673706.52555434</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="J754" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25320,19 +25300,11 @@
         <v>-10753804.92555434</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>3.117</v>
-      </c>
-      <c r="J755" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25361,19 +25333,11 @@
         <v>-10657686.84555434</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>3.109</v>
-      </c>
-      <c r="J756" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25402,19 +25366,11 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J757" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25443,19 +25399,11 @@
         <v>-10625647.48555434</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J758" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25484,19 +25432,11 @@
         <v>-10626456.47955434</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="J759" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25525,19 +25465,11 @@
         <v>-10576394.97955434</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J760" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25566,19 +25498,11 @@
         <v>-10377056.99605434</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="J761" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25607,19 +25531,11 @@
         <v>-10389071.75605434</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J762" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25648,19 +25564,11 @@
         <v>-10457155.39605434</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J763" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25689,19 +25597,11 @@
         <v>-10394077.90605434</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J764" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25733,14 +25633,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25772,14 +25666,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25808,19 +25696,11 @@
         <v>-10489194.75605435</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>3.126</v>
-      </c>
-      <c r="J767" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25849,19 +25729,11 @@
         <v>-10431123.41605435</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="J768" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25893,14 +25765,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25929,19 +25795,11 @@
         <v>-5186289.965354347</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="J770" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25973,14 +25831,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26012,14 +25864,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26051,14 +25897,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26090,14 +25930,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26129,14 +25963,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26168,14 +25996,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26207,14 +26029,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26243,19 +26059,13 @@
         <v>-5178752.706354345</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3.116</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
-        <v>0.9962836970474968</v>
+        <v>1</v>
       </c>
       <c r="M778" t="inlineStr"/>
     </row>
@@ -26381,7 +26191,7 @@
         <v>-5450086.036354346</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26447,7 +26257,7 @@
         <v>-5448083.576354346</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26711,7 +26521,7 @@
         <v>-5603674.121354345</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26876,7 +26686,7 @@
         <v>-5791501.757731814</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27866,14 +27676,10 @@
         <v>-8913424.952572433</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="J827" t="n">
-        <v>2.997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
@@ -27903,1365 +27709,1181 @@
         <v>-8880384.362572433</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>2.997</v>
+      </c>
+      <c r="C829" t="n">
         <v>2.996</v>
       </c>
-      <c r="J828" t="n">
+      <c r="D829" t="n">
         <v>2.997</v>
       </c>
-      <c r="K828" t="inlineStr">
+      <c r="E829" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="F829" t="n">
+        <v>249060.5803</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-9129444.942872433</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="F830" t="n">
+        <v>70086.10000000001</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-9059358.842872433</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="E831" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F831" t="n">
+        <v>141015.8637</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-8918342.979172433</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="D832" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="F832" t="n">
+        <v>14017.22</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-8932360.199172433</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="D833" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="E833" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="F833" t="n">
+        <v>44054.12</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-8976414.319172433</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="D834" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E834" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="F834" t="n">
+        <v>37742.366</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-8938671.953172432</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="D835" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="E835" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="F835" t="n">
+        <v>134164.82</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-8804507.133172432</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D836" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E836" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="F836" t="n">
+        <v>130159.9</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-8674347.233172432</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="F837" t="n">
+        <v>35043.05</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-8709390.283172432</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D838" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F838" t="n">
+        <v>15018.45</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-8724408.733172432</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E839" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F839" t="n">
+        <v>197059.1313</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-8921467.864472432</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="D840" t="n">
+        <v>3.014</v>
+      </c>
+      <c r="E840" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="F840" t="n">
+        <v>295985.8292</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-9217453.693672432</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D841" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E841" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="F841" t="n">
+        <v>59072.57</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-9158381.123672431</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="D842" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="E842" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="F842" t="n">
+        <v>54066.42</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-9104314.703672431</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E843" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F843" t="n">
+        <v>46056.58</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-9150371.283672431</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="C844" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="D844" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="E844" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="F844" t="n">
+        <v>107131.61</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-9043239.673672432</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="C845" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D845" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E845" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="F845" t="n">
+        <v>75092.25</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-9118331.923672432</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="D846" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="E846" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="F846" t="n">
+        <v>22027.06</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-9096304.863672432</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="C847" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="D847" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="E847" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F847" t="n">
+        <v>47717.4099</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-9048587.453772431</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="C848" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="D848" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="E848" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="F848" t="n">
+        <v>91111.92999999999</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-9139699.383772431</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="C849" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="D849" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="E849" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="F849" t="n">
+        <v>51062.73</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-9190762.113772431</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="C850" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="D850" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="E850" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="F850" t="n">
+        <v>88108.24000000001</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-9278870.353772432</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="C851" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="D851" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="E851" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="F851" t="n">
+        <v>48059.04</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-9326929.393772431</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="C852" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="D852" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="E852" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="F852" t="n">
+        <v>73089.78999999999</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-9253839.603772432</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="C853" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D853" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E853" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="F853" t="n">
+        <v>83903.07399999999</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-9169936.529772433</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C854" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D854" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E854" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F854" t="n">
+        <v>13015.99</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-9182952.519772433</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C855" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D855" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E855" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F855" t="n">
+        <v>30036.9</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-9182952.519772433</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="C856" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="D856" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="E856" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="F856" t="n">
+        <v>71087.33</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-9111865.189772433</v>
+      </c>
+      <c r="H856" t="n">
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J856" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="n">
+        <v>1</v>
+      </c>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="C857" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="D857" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="E857" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="F857" t="n">
+        <v>79097.17</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-9190962.359772433</v>
+      </c>
+      <c r="H857" t="n">
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="J857" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K857" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="C829" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="D829" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="E829" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="F829" t="n">
-        <v>249060.5803</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-9129444.942872433</v>
-      </c>
-      <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="J829" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K829" t="inlineStr">
+      <c r="L857" t="n">
+        <v>1</v>
+      </c>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="C858" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="D858" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="E858" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="F858" t="n">
+        <v>80098.39999999999</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-9190962.359772433</v>
+      </c>
+      <c r="H858" t="n">
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J858" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L858" t="n">
+        <v>1</v>
+      </c>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="C859" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="D859" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="E859" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="F859" t="n">
+        <v>96118.08</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-9190962.359772433</v>
+      </c>
+      <c r="H859" t="n">
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J859" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="n">
+        <v>1</v>
+      </c>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="C860" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="D860" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="E860" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="F860" t="n">
+        <v>32039.36</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-9223001.719772432</v>
+      </c>
+      <c r="H860" t="n">
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="J860" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="C861" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D861" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="E861" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="F861" t="n">
+        <v>95116.85000000001</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-9127884.869772432</v>
+      </c>
+      <c r="H861" t="n">
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="J861" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L861" t="n">
+        <v>1</v>
+      </c>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="C862" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D862" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E862" t="n">
+        <v>3.019</v>
+      </c>
+      <c r="F862" t="n">
+        <v>111996.3759</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-9015888.493872432</v>
+      </c>
+      <c r="H862" t="n">
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="J862" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K862" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="C830" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="D830" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="E830" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="F830" t="n">
-        <v>70086.10000000001</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-9059358.842872433</v>
-      </c>
-      <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="J830" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C831" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="D831" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="E831" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F831" t="n">
-        <v>141015.8637</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-8918342.979172433</v>
-      </c>
-      <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="J831" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>3.031</v>
-      </c>
-      <c r="C832" t="n">
-        <v>3.031</v>
-      </c>
-      <c r="D832" t="n">
-        <v>3.031</v>
-      </c>
-      <c r="E832" t="n">
-        <v>3.031</v>
-      </c>
-      <c r="F832" t="n">
-        <v>14017.22</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-8932360.199172433</v>
-      </c>
-      <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="C833" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="D833" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="E833" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="F833" t="n">
-        <v>44054.12</v>
-      </c>
-      <c r="G833" t="n">
-        <v>-8976414.319172433</v>
-      </c>
-      <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C834" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="D834" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="E834" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="F834" t="n">
-        <v>37742.366</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-8938671.953172432</v>
-      </c>
-      <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="C835" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="D835" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="E835" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="F835" t="n">
-        <v>134164.82</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-8804507.133172432</v>
-      </c>
-      <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="C836" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D836" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E836" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="F836" t="n">
-        <v>130159.9</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-8674347.233172432</v>
-      </c>
-      <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="C837" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="D837" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="E837" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="F837" t="n">
-        <v>35043.05</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-8709390.283172432</v>
-      </c>
-      <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C838" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="D838" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E838" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="F838" t="n">
-        <v>15018.45</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-8724408.733172432</v>
-      </c>
-      <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C839" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="D839" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E839" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F839" t="n">
-        <v>197059.1313</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-8921467.864472432</v>
-      </c>
-      <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="C840" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="D840" t="n">
-        <v>3.014</v>
-      </c>
-      <c r="E840" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="F840" t="n">
-        <v>295985.8292</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-9217453.693672432</v>
-      </c>
-      <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="C841" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="D841" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E841" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="F841" t="n">
-        <v>59072.57</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-9158381.123672431</v>
-      </c>
-      <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="C842" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="D842" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="E842" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="F842" t="n">
-        <v>54066.42</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-9104314.703672431</v>
-      </c>
-      <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C843" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D843" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E843" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F843" t="n">
-        <v>46056.58</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-9150371.283672431</v>
-      </c>
-      <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="C844" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="D844" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="E844" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="F844" t="n">
-        <v>107131.61</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-9043239.673672432</v>
-      </c>
-      <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="C845" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="D845" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E845" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="F845" t="n">
-        <v>75092.25</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-9118331.923672432</v>
-      </c>
-      <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="C846" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="D846" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="E846" t="n">
-        <v>3.034</v>
-      </c>
-      <c r="F846" t="n">
-        <v>22027.06</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-9096304.863672432</v>
-      </c>
-      <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C847" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="D847" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="E847" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F847" t="n">
-        <v>47717.4099</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-9048587.453772431</v>
-      </c>
-      <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="C848" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="D848" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="E848" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="F848" t="n">
-        <v>91111.92999999999</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-9139699.383772431</v>
-      </c>
-      <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="C849" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="D849" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="E849" t="n">
-        <v>3.029</v>
-      </c>
-      <c r="F849" t="n">
-        <v>51062.73</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-9190762.113772431</v>
-      </c>
-      <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="C850" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="D850" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="E850" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="F850" t="n">
-        <v>88108.24000000001</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-9278870.353772432</v>
-      </c>
-      <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="C851" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="D851" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="E851" t="n">
-        <v>3.017</v>
-      </c>
-      <c r="F851" t="n">
-        <v>48059.04</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-9326929.393772431</v>
-      </c>
-      <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="C852" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="D852" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="E852" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="F852" t="n">
-        <v>73089.78999999999</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-9253839.603772432</v>
-      </c>
-      <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="C853" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="D853" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E853" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="F853" t="n">
-        <v>83903.07399999999</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-9169936.529772433</v>
-      </c>
-      <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C854" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D854" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E854" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F854" t="n">
-        <v>13015.99</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-9182952.519772433</v>
-      </c>
-      <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="J854" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C855" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D855" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E855" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F855" t="n">
-        <v>30036.9</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-9182952.519772433</v>
-      </c>
-      <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="C856" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="D856" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="E856" t="n">
-        <v>3.021</v>
-      </c>
-      <c r="F856" t="n">
-        <v>71087.33</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-9111865.189772433</v>
-      </c>
-      <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="J856" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L856" t="n">
-        <v>1</v>
-      </c>
-      <c r="M856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="C857" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="D857" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="E857" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="F857" t="n">
-        <v>79097.17</v>
-      </c>
-      <c r="G857" t="n">
-        <v>-9190962.359772433</v>
-      </c>
-      <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L857" t="n">
-        <v>1</v>
-      </c>
-      <c r="M857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="C858" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="D858" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="E858" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="F858" t="n">
-        <v>80098.39999999999</v>
-      </c>
-      <c r="G858" t="n">
-        <v>-9190962.359772433</v>
-      </c>
-      <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J858" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L858" t="n">
-        <v>1</v>
-      </c>
-      <c r="M858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="C859" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="D859" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="E859" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="F859" t="n">
-        <v>96118.08</v>
-      </c>
-      <c r="G859" t="n">
-        <v>-9190962.359772433</v>
-      </c>
-      <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J859" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L859" t="n">
-        <v>1</v>
-      </c>
-      <c r="M859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="C860" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="D860" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="E860" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="F860" t="n">
-        <v>32039.36</v>
-      </c>
-      <c r="G860" t="n">
-        <v>-9223001.719772432</v>
-      </c>
-      <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="J860" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
-      <c r="M860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="C861" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="D861" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="E861" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="F861" t="n">
-        <v>95116.85000000001</v>
-      </c>
-      <c r="G861" t="n">
-        <v>-9127884.869772432</v>
-      </c>
-      <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>3.015</v>
-      </c>
-      <c r="J861" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L861" t="n">
-        <v>1</v>
-      </c>
-      <c r="M861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>3.019</v>
-      </c>
-      <c r="C862" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="D862" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E862" t="n">
-        <v>3.019</v>
-      </c>
-      <c r="F862" t="n">
-        <v>111996.3759</v>
-      </c>
-      <c r="G862" t="n">
-        <v>-9015888.493872432</v>
-      </c>
-      <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="J862" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29296,7 +28918,7 @@
         <v>3.024</v>
       </c>
       <c r="J863" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29331,11 +28953,13 @@
         <v>-8908945.316872431</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>3.049</v>
+      </c>
       <c r="J864" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29370,11 +28994,13 @@
         <v>-8972022.806872431</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J865" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29415,7 +29041,7 @@
         <v>3.039</v>
       </c>
       <c r="J866" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29450,11 +29076,13 @@
         <v>-8952999.43687243</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3.047</v>
+      </c>
       <c r="J867" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29489,11 +29117,13 @@
         <v>-9029092.916872431</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3.046</v>
+      </c>
       <c r="J868" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29528,11 +29158,13 @@
         <v>-8971021.576872431</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3.036</v>
+      </c>
       <c r="J869" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29567,11 +29199,13 @@
         <v>-8868896.11687243</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J870" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29606,11 +29240,13 @@
         <v>-8846298.91387243</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3.038</v>
+      </c>
       <c r="J871" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29645,11 +29281,13 @@
         <v>-8429927.92267243</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3.07</v>
+      </c>
       <c r="J872" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29684,19 +29322,19 @@
         <v>-8511027.552672431</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
-        <v>2.997</v>
+        <v>3.016</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L873" t="n">
-        <v>1.02503003003003</v>
+        <v>1</v>
       </c>
       <c r="M873" t="inlineStr"/>
     </row>
@@ -29723,11 +29361,17 @@
         <v>-8553079.212672431</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29756,11 +29400,19 @@
         <v>-8490634.499672431</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="J875" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29789,11 +29441,17 @@
         <v>-8543699.689672431</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29822,11 +29480,19 @@
         <v>-8469608.669672431</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="J877" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29855,11 +29521,17 @@
         <v>-8530683.699672431</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29891,8 +29563,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29924,8 +29602,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29957,8 +29641,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29990,8 +29680,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30023,8 +29719,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30053,11 +29755,17 @@
         <v>-8450064.65967243</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30086,11 +29794,17 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30119,11 +29833,17 @@
         <v>-8367963.799672429</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30152,11 +29872,17 @@
         <v>-8399001.929672429</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30185,11 +29911,17 @@
         <v>-8611726.10707243</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30218,11 +29950,17 @@
         <v>-8729871.24707243</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30254,8 +29992,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30287,8 +30031,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30317,11 +30067,17 @@
         <v>-8810970.877072429</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30350,11 +30106,17 @@
         <v>-8772924.137072429</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30383,11 +30145,17 @@
         <v>-8732874.93707243</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30416,11 +30184,17 @@
         <v>-8905701.519772429</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30449,11 +30223,17 @@
         <v>-8997977.679772429</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30482,11 +30262,17 @@
         <v>-8972946.929772429</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30515,11 +30301,17 @@
         <v>-9038026.879772428</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30548,11 +30340,17 @@
         <v>-8820932.782372428</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30581,11 +30379,17 @@
         <v>-8753377.169072429</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30614,11 +30418,17 @@
         <v>-8819458.349072428</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30647,11 +30457,17 @@
         <v>-8628223.419072429</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30680,11 +30496,17 @@
         <v>-8683291.069072429</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30713,11 +30535,17 @@
         <v>-8596184.059072429</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30746,11 +30574,17 @@
         <v>-8491054.909072429</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30779,11 +30613,17 @@
         <v>-8412958.969072429</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30812,11 +30652,17 @@
         <v>-8521091.809072429</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30845,11 +30691,17 @@
         <v>-8421970.03907243</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30878,11 +30730,17 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30911,11 +30769,17 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30944,11 +30808,17 @@
         <v>-8433984.799072431</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30977,11 +30847,17 @@
         <v>-8519089.349072432</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31010,11 +30886,17 @@
         <v>-8588174.219072431</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31043,11 +30925,17 @@
         <v>-8495059.829072431</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31076,11 +30964,17 @@
         <v>-8417965.11907243</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31109,11 +31003,17 @@
         <v>-8457013.089072431</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31142,11 +31042,17 @@
         <v>-8561141.00907243</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31175,11 +31081,17 @@
         <v>-8633229.569072431</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31208,11 +31120,17 @@
         <v>-8632492.664072432</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31241,11 +31159,17 @@
         <v>-8707584.914072432</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31274,11 +31198,17 @@
         <v>-8674544.324072432</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31310,8 +31240,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31343,8 +31279,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31376,8 +31318,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31409,8 +31357,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31442,8 +31396,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31475,8 +31435,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31508,8 +31474,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31541,8 +31513,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31574,8 +31552,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31607,8 +31591,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31640,8 +31630,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31673,8 +31669,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31706,8 +31708,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31739,8 +31747,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31772,8 +31786,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31805,8 +31825,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31838,8 +31864,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31871,8 +31903,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31904,8 +31942,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31937,8 +31981,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31970,8 +32020,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32003,8 +32059,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32036,8 +32098,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32069,8 +32137,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32102,8 +32176,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32135,8 +32215,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32168,8 +32254,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32201,8 +32293,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32234,8 +32332,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32267,8 +32371,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32300,8 +32410,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32333,8 +32449,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32366,8 +32488,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32399,8 +32527,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32432,8 +32566,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32465,8 +32605,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32498,8 +32644,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32531,8 +32683,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32564,8 +32722,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32597,8 +32761,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32630,8 +32800,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32663,8 +32839,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32696,8 +32878,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32729,8 +32917,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32762,8 +32956,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32795,8 +32995,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32828,8 +33034,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32861,8 +33073,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32894,8 +33112,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32927,8 +33151,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32960,8 +33190,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32993,8 +33229,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33026,8 +33268,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33059,8 +33307,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33092,8 +33346,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33125,8 +33385,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33158,8 +33424,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33191,8 +33463,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33224,8 +33502,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33257,8 +33541,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33290,8 +33580,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33323,8 +33619,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33356,8 +33658,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33389,8 +33697,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33422,8 +33736,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
